--- a/Case/imooc.xlsx
+++ b/Case/imooc.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\python-code\interface-seleium-requsets\Case\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE85C6E-FF4A-4F46-A381-09CE17284DDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11020" windowWidth="19420" xWindow="13550" yWindow="-110"/>
+    <workbookView xWindow="8100" yWindow="480" windowWidth="14004" windowHeight="11004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>case编号</t>
   </si>
@@ -202,37 +208,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -248,36 +253,45 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -577,33 +591,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
-      <selection activeCell="M2" sqref="M2:M8"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="11.25"/>
-    <col customWidth="1" max="2" min="2" style="4" width="8.08203125"/>
-    <col customWidth="1" max="3" min="3" style="4" width="4.83203125"/>
-    <col customWidth="1" max="5" min="4" style="4" width="11.5"/>
-    <col customWidth="1" max="6" min="6" style="4" width="12.08203125"/>
-    <col customWidth="1" max="7" min="7" style="4" width="9.08203125"/>
-    <col customWidth="1" max="8" min="8" style="4" width="13.5"/>
-    <col customWidth="1" max="10" min="9" style="4" width="10"/>
-    <col customWidth="1" max="11" min="11" style="4" width="17.5"/>
-    <col customWidth="1" max="12" min="12" style="3" width="6.58203125"/>
-    <col customWidth="1" max="14" min="14" style="4" width="16.33203125"/>
+    <col min="1" max="1" width="11.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.5" r="2" s="4" spans="1:14">
+    <row r="2" spans="1:14" ht="23.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -682,7 +693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="29.15" r="3" s="4" spans="1:14">
+    <row r="3" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -726,7 +737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customHeight="1" ht="75.65000000000001" r="4" s="4" spans="1:14">
+    <row r="4" spans="1:14" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -764,7 +775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="42" r="5" s="4" spans="1:14">
+    <row r="5" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -799,7 +810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row customHeight="1" ht="42" r="6" s="4" spans="1:14">
+    <row r="6" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -834,7 +845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row customHeight="1" ht="42" r="7" s="4" spans="1:14">
+    <row r="7" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -869,7 +880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row customHeight="1" ht="42" r="8" s="4" spans="1:14">
+    <row r="8" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -904,16 +915,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N10" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://www.imooc.com/login/mobile" ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" display="http://www.imooc.com/login/mobile" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>